--- a/tests/output/3_c_2_ING Saving Maximiser Account #1728_Interim_output.xlsx
+++ b/tests/output/3_c_2_ING Saving Maximiser Account #1728_Interim_output.xlsx
@@ -413,638 +413,1779 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="F1:CH35"/>
+  <dimension ref="M1:FZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="0.4958333333333333" customWidth="1" min="1" max="1"/>
+    <col width="0.4958333333333333" customWidth="1" min="2" max="2"/>
+    <col width="0.4958333333333333" customWidth="1" min="3" max="3"/>
+    <col width="0.4958333333333333" customWidth="1" min="4" max="4"/>
+    <col width="0.4958333333333333" customWidth="1" min="5" max="5"/>
+    <col width="0.4958333333333333" customWidth="1" min="6" max="6"/>
+    <col width="0.4958333333333333" customWidth="1" min="7" max="7"/>
+    <col width="0.4958333333333333" customWidth="1" min="8" max="8"/>
+    <col width="0.4958333333333333" customWidth="1" min="9" max="9"/>
+    <col width="0.4958333333333333" customWidth="1" min="10" max="10"/>
+    <col width="0.4958333333333333" customWidth="1" min="11" max="11"/>
+    <col width="0.4958333333333333" customWidth="1" min="12" max="12"/>
+    <col width="0.4958333333333333" customWidth="1" min="13" max="13"/>
+    <col width="0.4958333333333333" customWidth="1" min="14" max="14"/>
+    <col width="0.4958333333333333" customWidth="1" min="15" max="15"/>
+    <col width="0.4958333333333333" customWidth="1" min="16" max="16"/>
+    <col width="0.4958333333333333" customWidth="1" min="17" max="17"/>
+    <col width="0.4958333333333333" customWidth="1" min="18" max="18"/>
+    <col width="0.4958333333333333" customWidth="1" min="19" max="19"/>
+    <col width="0.4958333333333333" customWidth="1" min="20" max="20"/>
+    <col width="0.4958333333333333" customWidth="1" min="21" max="21"/>
+    <col width="0.4958333333333333" customWidth="1" min="22" max="22"/>
+    <col width="0.4958333333333333" customWidth="1" min="23" max="23"/>
+    <col width="0.4958333333333333" customWidth="1" min="24" max="24"/>
+    <col width="0.4958333333333333" customWidth="1" min="25" max="25"/>
+    <col width="0.4958333333333333" customWidth="1" min="26" max="26"/>
+    <col width="0.4958333333333333" customWidth="1" min="27" max="27"/>
+    <col width="0.4958333333333333" customWidth="1" min="28" max="28"/>
+    <col width="0.4958333333333333" customWidth="1" min="29" max="29"/>
+    <col width="0.4958333333333333" customWidth="1" min="30" max="30"/>
+    <col width="0.4958333333333333" customWidth="1" min="31" max="31"/>
+    <col width="0.4958333333333333" customWidth="1" min="32" max="32"/>
+    <col width="0.4958333333333333" customWidth="1" min="33" max="33"/>
+    <col width="0.4958333333333333" customWidth="1" min="34" max="34"/>
+    <col width="0.4958333333333333" customWidth="1" min="35" max="35"/>
+    <col width="0.4958333333333333" customWidth="1" min="36" max="36"/>
+    <col width="0.4958333333333333" customWidth="1" min="37" max="37"/>
+    <col width="0.4958333333333333" customWidth="1" min="38" max="38"/>
+    <col width="0.4958333333333333" customWidth="1" min="39" max="39"/>
+    <col width="0.4958333333333333" customWidth="1" min="40" max="40"/>
+    <col width="0.4958333333333333" customWidth="1" min="41" max="41"/>
+    <col width="0.4958333333333333" customWidth="1" min="42" max="42"/>
+    <col width="0.4958333333333333" customWidth="1" min="43" max="43"/>
+    <col width="0.4958333333333333" customWidth="1" min="44" max="44"/>
+    <col width="0.4958333333333333" customWidth="1" min="45" max="45"/>
+    <col width="0.4958333333333333" customWidth="1" min="46" max="46"/>
+    <col width="0.4958333333333333" customWidth="1" min="47" max="47"/>
+    <col width="0.4958333333333333" customWidth="1" min="48" max="48"/>
+    <col width="0.4958333333333333" customWidth="1" min="49" max="49"/>
+    <col width="0.4958333333333333" customWidth="1" min="50" max="50"/>
+    <col width="0.4958333333333333" customWidth="1" min="51" max="51"/>
+    <col width="0.4958333333333333" customWidth="1" min="52" max="52"/>
+    <col width="0.4958333333333333" customWidth="1" min="53" max="53"/>
+    <col width="0.4958333333333333" customWidth="1" min="54" max="54"/>
+    <col width="0.4958333333333333" customWidth="1" min="55" max="55"/>
+    <col width="0.4958333333333333" customWidth="1" min="56" max="56"/>
+    <col width="0.4958333333333333" customWidth="1" min="57" max="57"/>
+    <col width="0.4958333333333333" customWidth="1" min="58" max="58"/>
+    <col width="0.4958333333333333" customWidth="1" min="59" max="59"/>
+    <col width="0.4958333333333333" customWidth="1" min="60" max="60"/>
+    <col width="0.4958333333333333" customWidth="1" min="61" max="61"/>
+    <col width="0.4958333333333333" customWidth="1" min="62" max="62"/>
+    <col width="0.4958333333333333" customWidth="1" min="63" max="63"/>
+    <col width="0.4958333333333333" customWidth="1" min="64" max="64"/>
+    <col width="0.4958333333333333" customWidth="1" min="65" max="65"/>
+    <col width="0.4958333333333333" customWidth="1" min="66" max="66"/>
+    <col width="0.4958333333333333" customWidth="1" min="67" max="67"/>
+    <col width="0.4958333333333333" customWidth="1" min="68" max="68"/>
+    <col width="0.4958333333333333" customWidth="1" min="69" max="69"/>
+    <col width="0.4958333333333333" customWidth="1" min="70" max="70"/>
+    <col width="0.4958333333333333" customWidth="1" min="71" max="71"/>
+    <col width="0.4958333333333333" customWidth="1" min="72" max="72"/>
+    <col width="0.4958333333333333" customWidth="1" min="73" max="73"/>
+    <col width="0.4958333333333333" customWidth="1" min="74" max="74"/>
+    <col width="0.4958333333333333" customWidth="1" min="75" max="75"/>
+    <col width="0.4958333333333333" customWidth="1" min="76" max="76"/>
+    <col width="0.4958333333333333" customWidth="1" min="77" max="77"/>
+    <col width="0.4958333333333333" customWidth="1" min="78" max="78"/>
+    <col width="0.4958333333333333" customWidth="1" min="79" max="79"/>
+    <col width="0.4958333333333333" customWidth="1" min="80" max="80"/>
+    <col width="0.4958333333333333" customWidth="1" min="81" max="81"/>
+    <col width="0.4958333333333333" customWidth="1" min="82" max="82"/>
+    <col width="0.4958333333333333" customWidth="1" min="83" max="83"/>
+    <col width="0.4958333333333333" customWidth="1" min="84" max="84"/>
+    <col width="0.4958333333333333" customWidth="1" min="85" max="85"/>
+    <col width="0.4958333333333333" customWidth="1" min="86" max="86"/>
+    <col width="0.4958333333333333" customWidth="1" min="87" max="87"/>
+    <col width="0.4958333333333333" customWidth="1" min="88" max="88"/>
+    <col width="0.4958333333333333" customWidth="1" min="89" max="89"/>
+    <col width="0.4958333333333333" customWidth="1" min="90" max="90"/>
+    <col width="0.4958333333333333" customWidth="1" min="91" max="91"/>
+    <col width="0.4958333333333333" customWidth="1" min="92" max="92"/>
+    <col width="0.4958333333333333" customWidth="1" min="93" max="93"/>
+    <col width="0.4958333333333333" customWidth="1" min="94" max="94"/>
+    <col width="0.4958333333333333" customWidth="1" min="95" max="95"/>
+    <col width="0.4958333333333333" customWidth="1" min="96" max="96"/>
+    <col width="0.4958333333333333" customWidth="1" min="97" max="97"/>
+    <col width="0.4958333333333333" customWidth="1" min="98" max="98"/>
+    <col width="0.4958333333333333" customWidth="1" min="99" max="99"/>
+    <col width="0.4958333333333333" customWidth="1" min="100" max="100"/>
+    <col width="0.4958333333333333" customWidth="1" min="101" max="101"/>
+    <col width="0.4958333333333333" customWidth="1" min="102" max="102"/>
+    <col width="0.4958333333333333" customWidth="1" min="103" max="103"/>
+    <col width="0.4958333333333333" customWidth="1" min="104" max="104"/>
+    <col width="0.4958333333333333" customWidth="1" min="105" max="105"/>
+    <col width="0.4958333333333333" customWidth="1" min="106" max="106"/>
+    <col width="0.4958333333333333" customWidth="1" min="107" max="107"/>
+    <col width="0.4958333333333333" customWidth="1" min="108" max="108"/>
+    <col width="0.4958333333333333" customWidth="1" min="109" max="109"/>
+    <col width="0.4958333333333333" customWidth="1" min="110" max="110"/>
+    <col width="0.4958333333333333" customWidth="1" min="111" max="111"/>
+    <col width="0.4958333333333333" customWidth="1" min="112" max="112"/>
+    <col width="0.4958333333333333" customWidth="1" min="113" max="113"/>
+    <col width="0.4958333333333333" customWidth="1" min="114" max="114"/>
+    <col width="0.4958333333333333" customWidth="1" min="115" max="115"/>
+    <col width="0.4958333333333333" customWidth="1" min="116" max="116"/>
+    <col width="0.4958333333333333" customWidth="1" min="117" max="117"/>
+    <col width="0.4958333333333333" customWidth="1" min="118" max="118"/>
+    <col width="0.4958333333333333" customWidth="1" min="119" max="119"/>
+    <col width="0.4958333333333333" customWidth="1" min="120" max="120"/>
+    <col width="0.4958333333333333" customWidth="1" min="121" max="121"/>
+    <col width="0.4958333333333333" customWidth="1" min="122" max="122"/>
+    <col width="0.4958333333333333" customWidth="1" min="123" max="123"/>
+    <col width="0.4958333333333333" customWidth="1" min="124" max="124"/>
+    <col width="0.4958333333333333" customWidth="1" min="125" max="125"/>
+    <col width="0.4958333333333333" customWidth="1" min="126" max="126"/>
+    <col width="0.4958333333333333" customWidth="1" min="127" max="127"/>
+    <col width="0.4958333333333333" customWidth="1" min="128" max="128"/>
+    <col width="0.4958333333333333" customWidth="1" min="129" max="129"/>
+    <col width="0.4958333333333333" customWidth="1" min="130" max="130"/>
+    <col width="0.4958333333333333" customWidth="1" min="131" max="131"/>
+    <col width="0.4958333333333333" customWidth="1" min="132" max="132"/>
+    <col width="0.4958333333333333" customWidth="1" min="133" max="133"/>
+    <col width="0.4958333333333333" customWidth="1" min="134" max="134"/>
+    <col width="0.4958333333333333" customWidth="1" min="135" max="135"/>
+    <col width="0.4958333333333333" customWidth="1" min="136" max="136"/>
+    <col width="0.4958333333333333" customWidth="1" min="137" max="137"/>
+    <col width="0.4958333333333333" customWidth="1" min="138" max="138"/>
+    <col width="0.4958333333333333" customWidth="1" min="139" max="139"/>
+    <col width="0.4958333333333333" customWidth="1" min="140" max="140"/>
+    <col width="0.4958333333333333" customWidth="1" min="141" max="141"/>
+    <col width="0.4958333333333333" customWidth="1" min="142" max="142"/>
+    <col width="0.4958333333333333" customWidth="1" min="143" max="143"/>
+    <col width="0.4958333333333333" customWidth="1" min="144" max="144"/>
+    <col width="0.4958333333333333" customWidth="1" min="145" max="145"/>
+    <col width="0.4958333333333333" customWidth="1" min="146" max="146"/>
+    <col width="0.4958333333333333" customWidth="1" min="147" max="147"/>
+    <col width="0.4958333333333333" customWidth="1" min="148" max="148"/>
+    <col width="0.4958333333333333" customWidth="1" min="149" max="149"/>
+    <col width="0.4958333333333333" customWidth="1" min="150" max="150"/>
+    <col width="0.4958333333333333" customWidth="1" min="151" max="151"/>
+    <col width="0.4958333333333333" customWidth="1" min="152" max="152"/>
+    <col width="0.4958333333333333" customWidth="1" min="153" max="153"/>
+    <col width="0.4958333333333333" customWidth="1" min="154" max="154"/>
+    <col width="0.4958333333333333" customWidth="1" min="155" max="155"/>
+    <col width="0.4958333333333333" customWidth="1" min="156" max="156"/>
+    <col width="0.4958333333333333" customWidth="1" min="157" max="157"/>
+    <col width="0.4958333333333333" customWidth="1" min="158" max="158"/>
+    <col width="0.4958333333333333" customWidth="1" min="159" max="159"/>
+    <col width="0.4958333333333333" customWidth="1" min="160" max="160"/>
+    <col width="0.4958333333333333" customWidth="1" min="161" max="161"/>
+    <col width="0.4958333333333333" customWidth="1" min="162" max="162"/>
+    <col width="0.4958333333333333" customWidth="1" min="163" max="163"/>
+    <col width="0.4958333333333333" customWidth="1" min="164" max="164"/>
+    <col width="0.4958333333333333" customWidth="1" min="165" max="165"/>
+    <col width="0.4958333333333333" customWidth="1" min="166" max="166"/>
+    <col width="0.4958333333333333" customWidth="1" min="167" max="167"/>
+    <col width="0.4958333333333333" customWidth="1" min="168" max="168"/>
+    <col width="0.4958333333333333" customWidth="1" min="169" max="169"/>
+    <col width="0.4958333333333333" customWidth="1" min="170" max="170"/>
+    <col width="0.4958333333333333" customWidth="1" min="171" max="171"/>
+    <col width="0.4958333333333333" customWidth="1" min="172" max="172"/>
+    <col width="0.4958333333333333" customWidth="1" min="173" max="173"/>
+    <col width="0.4958333333333333" customWidth="1" min="174" max="174"/>
+    <col width="0.4958333333333333" customWidth="1" min="175" max="175"/>
+    <col width="0.4958333333333333" customWidth="1" min="176" max="176"/>
+    <col width="0.4958333333333333" customWidth="1" min="177" max="177"/>
+    <col width="0.4958333333333333" customWidth="1" min="178" max="178"/>
+    <col width="0.4958333333333333" customWidth="1" min="179" max="179"/>
+    <col width="0.4958333333333333" customWidth="1" min="180" max="180"/>
+    <col width="0.4958333333333333" customWidth="1" min="181" max="181"/>
+    <col width="0.4958333333333333" customWidth="1" min="182" max="182"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Interim statement</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Mr Keerthi Kiran Yaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>P.O. Box 272</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ST MARYS, NSW 2760</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Client Number</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+    <row r="1" ht="19.2" customHeight="1">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Interim</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>statement</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="10.8" customHeight="1">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Keerthi</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Kiran</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Yaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="10.8" customHeight="1">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P.O.</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Box</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="10.8" customHeight="1">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>MARYS,</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>2760</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="10.8" customHeight="1">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
         <is>
           <t>91498233</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Statement Start Date</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>01 Jan 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" t="inlineStr">
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>Statement</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="10.8" customHeight="1">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Savings Maximiser</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>Statement End Date</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>03 Apr 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>ACC: 820191728</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>BSB: 923100</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Account Type</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Savings Maximiser</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="inlineStr">
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Savings</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>Maximiser</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>Statement</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="DM6" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="10.8" customHeight="1">
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>ACC:</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>820191728</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="10.8" customHeight="1">
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>BSB:</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>923100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="10.8" customHeight="1">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>Savings</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>Maximiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="10.8" customHeight="1">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
+      <c r="DN10" t="inlineStr">
         <is>
           <t>Deposit($)</t>
         </is>
       </c>
-      <c r="BK10" t="inlineStr">
+      <c r="EF10" t="inlineStr">
         <is>
           <t>Withdrawal($)</t>
         </is>
       </c>
-      <c r="CA10" t="inlineStr">
+      <c r="FP10" t="inlineStr">
         <is>
           <t>Balance($)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>Brought Forward</t>
-        </is>
-      </c>
-      <c r="CA11" t="inlineStr">
+    <row r="11" ht="10.8" customHeight="1">
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>Brought</t>
+        </is>
+      </c>
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="FP11" t="inlineStr">
         <is>
           <t>$10,002.70</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>01 Jan 2025</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 509023</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
+    <row r="12" ht="10.8" customHeight="1">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>509023</t>
+        </is>
+      </c>
+      <c r="DQ12" t="inlineStr">
         <is>
           <t>$450.00</t>
         </is>
       </c>
-      <c r="CA12" t="inlineStr">
+      <c r="FP12" t="inlineStr">
         <is>
           <t>$10,452.70</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>08 Jan 2025</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 142101</t>
-        </is>
-      </c>
-      <c r="BB13" t="inlineStr">
+    <row r="13" ht="10.8" customHeight="1">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>142101</t>
+        </is>
+      </c>
+      <c r="DN13" t="inlineStr">
         <is>
           <t>$1,002.00</t>
         </is>
       </c>
-      <c r="CA13" t="inlineStr">
+      <c r="FP13" t="inlineStr">
         <is>
           <t>$11,454.70</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>13 Jan 2025</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 394252</t>
-        </is>
-      </c>
-      <c r="BM14" t="inlineStr">
+    <row r="14" ht="10.8" customHeight="1">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>394252</t>
+        </is>
+      </c>
+      <c r="EJ14" t="inlineStr">
         <is>
           <t>-$3,876.00</t>
         </is>
       </c>
-      <c r="CB14" t="inlineStr">
+      <c r="FQ14" t="inlineStr">
         <is>
           <t>$7,578.70</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>15 Jan 2025</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 354826</t>
-        </is>
-      </c>
-      <c r="BB15" t="inlineStr">
+    <row r="15" ht="10.8" customHeight="1">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>354826</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr">
         <is>
           <t>$3,300.00</t>
         </is>
       </c>
-      <c r="CA15" t="inlineStr">
+      <c r="FP15" t="inlineStr">
         <is>
           <t>$10,878.70</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>31 Jan 2025</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Interest Credit</t>
+    <row r="16" ht="10.8" customHeight="1">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>Interest</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="DT16" t="inlineStr">
+        <is>
           <t>$4.98</t>
         </is>
       </c>
-      <c r="CA16" t="inlineStr">
+      <c r="FP16" t="inlineStr">
         <is>
           <t>$10,883.68</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>31 Jan 2025</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Bonus Interest Credit - Receipt 915800</t>
+    <row r="17" ht="10.8" customHeight="1">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>915800</t>
+        </is>
+      </c>
+      <c r="DR17" t="inlineStr">
+        <is>
           <t>$44.83</t>
         </is>
       </c>
-      <c r="CA17" t="inlineStr">
+      <c r="FP17" t="inlineStr">
         <is>
           <t>$10,928.51</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>07 Feb 2025</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 896821</t>
-        </is>
-      </c>
-      <c r="BB18" t="inlineStr">
+    <row r="18" ht="10.8" customHeight="1">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>896821</t>
+        </is>
+      </c>
+      <c r="DN18" t="inlineStr">
         <is>
           <t>$1,001.00</t>
         </is>
       </c>
-      <c r="CA18" t="inlineStr">
+      <c r="FP18" t="inlineStr">
         <is>
           <t>$11,929.51</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>12 Feb 2025</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 184750</t>
-        </is>
-      </c>
-      <c r="BB19" t="inlineStr">
+    <row r="19" ht="10.8" customHeight="1">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>184750</t>
+        </is>
+      </c>
+      <c r="DN19" t="inlineStr">
         <is>
           <t>$4,000.00</t>
         </is>
       </c>
-      <c r="CA19" t="inlineStr">
+      <c r="FP19" t="inlineStr">
         <is>
           <t>$15,929.51</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>26 Feb 2025</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 273587</t>
-        </is>
-      </c>
-      <c r="BB20" t="inlineStr">
+    <row r="20" ht="10.8" customHeight="1">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>273587</t>
+        </is>
+      </c>
+      <c r="DN20" t="inlineStr">
         <is>
           <t>$3,500.00</t>
         </is>
       </c>
-      <c r="CA20" t="inlineStr">
+      <c r="FP20" t="inlineStr">
         <is>
           <t>$19,429.51</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>28 Feb 2025</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Interest Credit</t>
+    <row r="21" ht="10.8" customHeight="1">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>Interest</t>
         </is>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="DT21" t="inlineStr">
+        <is>
           <t>$5.86</t>
         </is>
       </c>
-      <c r="CA21" t="inlineStr">
+      <c r="FP21" t="inlineStr">
         <is>
           <t>$19,435.37</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>28 Feb 2025</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Bonus Interest Credit - Receipt 941073</t>
+    <row r="22" ht="10.8" customHeight="1">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>941073</t>
+        </is>
+      </c>
+      <c r="DR22" t="inlineStr">
+        <is>
           <t>$55.34</t>
         </is>
       </c>
-      <c r="CA22" t="inlineStr">
+      <c r="FP22" t="inlineStr">
         <is>
           <t>$19,490.71</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>13 Mar 2025</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 336591</t>
-        </is>
-      </c>
-      <c r="BC23" t="inlineStr">
+    <row r="23" ht="10.8" customHeight="1">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>336591</t>
+        </is>
+      </c>
+      <c r="DQ23" t="inlineStr">
         <is>
           <t>$300.00</t>
         </is>
       </c>
-      <c r="CA23" t="inlineStr">
+      <c r="FP23" t="inlineStr">
         <is>
           <t>$19,790.71</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>13 Mar 2025</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 343308</t>
-        </is>
-      </c>
-      <c r="BB24" t="inlineStr">
+    <row r="24" ht="10.8" customHeight="1">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>343308</t>
+        </is>
+      </c>
+      <c r="DN24" t="inlineStr">
         <is>
           <t>$2,700.00</t>
         </is>
       </c>
-      <c r="CA24" t="inlineStr">
+      <c r="FP24" t="inlineStr">
         <is>
           <t>$22,490.71</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>21 Mar 2025</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 617712</t>
-        </is>
-      </c>
-      <c r="BM25" t="inlineStr">
+    <row r="25" ht="10.8" customHeight="1">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>617712</t>
+        </is>
+      </c>
+      <c r="EJ25" t="inlineStr">
         <is>
           <t>-$3,500.00</t>
         </is>
       </c>
-      <c r="CA25" t="inlineStr">
+      <c r="FP25" t="inlineStr">
         <is>
           <t>$18,990.71</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>28 Mar 2025</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Internal Transfer - Receipt 854428</t>
-        </is>
-      </c>
-      <c r="BB26" t="inlineStr">
+    <row r="26" ht="10.8" customHeight="1">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>854428</t>
+        </is>
+      </c>
+      <c r="DN26" t="inlineStr">
         <is>
           <t>$4,000.00</t>
         </is>
       </c>
-      <c r="CA26" t="inlineStr">
+      <c r="FP26" t="inlineStr">
         <is>
           <t>$22,990.71</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>31 Mar 2025</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Interest Credit</t>
+    <row r="27" ht="10.8" customHeight="1">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>Interest</t>
         </is>
       </c>
       <c r="BE27" t="inlineStr">
         <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="DT27" t="inlineStr">
+        <is>
           <t>$0.87</t>
         </is>
       </c>
-      <c r="CA27" t="inlineStr">
+      <c r="FP27" t="inlineStr">
         <is>
           <t>$22,991.58</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>31 Mar 2025</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Bonus Interest Credit - Receipt 908126</t>
+    <row r="28" ht="10.8" customHeight="1">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
         <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>Receipt</t>
+        </is>
+      </c>
+      <c r="CJ28" t="inlineStr">
+        <is>
+          <t>908126</t>
+        </is>
+      </c>
+      <c r="DR28" t="inlineStr">
+        <is>
           <t>$93.62</t>
         </is>
       </c>
-      <c r="CA28" t="inlineStr">
+      <c r="FP28" t="inlineStr">
         <is>
           <t>$23,085.20</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="BH29" t="inlineStr">
-        <is>
-          <t>Closing Balance</t>
-        </is>
-      </c>
-      <c r="CA29" t="inlineStr">
+    <row r="29" ht="10.8" customHeight="1">
+      <c r="EA29" t="inlineStr">
+        <is>
+          <t>Closing</t>
+        </is>
+      </c>
+      <c r="EM29" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="FP29" t="inlineStr">
         <is>
           <t>$23,085.20</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Interim statements may not include all interest rate details or transactions which may appear on your regular statement. *Be sure to check all</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>transactions carefully. If you spot something that doesn't look right, like an error or unauthorised transaction or you have any questions, please send</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>us a secure message via online banking as soon as possible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>ING is a business name of ING Bank (Australia) Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ABN 24 000 893 292 | AFSL 229823, Australian Credit Licence 229823</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>GPO Box 4094 Sydney NSW Australia 2001 | www.ing.com.au</t>
+    <row r="30" ht="9.6" customHeight="1">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Interim</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>statements</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>details</t>
+        </is>
+      </c>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="CG30" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t>which</t>
+        </is>
+      </c>
+      <c r="DD30" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="DJ30" t="inlineStr">
+        <is>
+          <t>appear</t>
+        </is>
+      </c>
+      <c r="DS30" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="DW30" t="inlineStr">
+        <is>
+          <t>your</t>
+        </is>
+      </c>
+      <c r="EC30" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="EL30" t="inlineStr">
+        <is>
+          <t>statement.</t>
+        </is>
+      </c>
+      <c r="EY30" t="inlineStr">
+        <is>
+          <t>*Be</t>
+        </is>
+      </c>
+      <c r="FD30" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="FJ30" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="FM30" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="FU30" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="9.6" customHeight="1">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>carefully.</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>spot</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>something</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>doesn't</t>
+        </is>
+      </c>
+      <c r="CB31" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="CH31" t="inlineStr">
+        <is>
+          <t>right,</t>
+        </is>
+      </c>
+      <c r="CO31" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="CS31" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="CW31" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="DD31" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="DG31" t="inlineStr">
+        <is>
+          <t>unauthorised</t>
+        </is>
+      </c>
+      <c r="DW31" t="inlineStr">
+        <is>
+          <t>transaction</t>
+        </is>
+      </c>
+      <c r="EK31" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="EN31" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="ES31" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="EZ31" t="inlineStr">
+        <is>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="FE31" t="inlineStr">
+        <is>
+          <t>questions,</t>
+        </is>
+      </c>
+      <c r="FR31" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="FZ31" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="9.6" customHeight="1">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>secure</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>via</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>banking</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>soon</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t>possible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="8.4" customHeight="1">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>(Australia)</t>
+        </is>
+      </c>
+      <c r="BL33" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="8.4" customHeight="1">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>ABN</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>AFSL</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>229823,</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>Australian</t>
+        </is>
+      </c>
+      <c r="BK34" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>Licence</t>
+        </is>
+      </c>
+      <c r="CA34" t="inlineStr">
+        <is>
+          <t>229823</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="8.4" customHeight="1">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>GPO</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Box</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>4094</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>www.ing.com.au</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="Y6:AK6"/>
-    <mergeCell ref="U12:AP12"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="U24:AP24"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="U28:AS28"/>
-    <mergeCell ref="G28:O28"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="U18:AP18"/>
-    <mergeCell ref="F2:T2"/>
-    <mergeCell ref="Y7:AJ7"/>
-    <mergeCell ref="G24:O24"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="U20:AP20"/>
-    <mergeCell ref="F34:AN34"/>
-    <mergeCell ref="U14:AP14"/>
-    <mergeCell ref="BH29:BS29"/>
-    <mergeCell ref="U23:AP23"/>
-    <mergeCell ref="U19:AP19"/>
-    <mergeCell ref="F1:AA1"/>
-    <mergeCell ref="BK5:BS5"/>
-    <mergeCell ref="F4:U4"/>
-    <mergeCell ref="G26:O26"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="U26:AP26"/>
-    <mergeCell ref="U22:AS22"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G25:O25"/>
-    <mergeCell ref="U15:AP15"/>
-    <mergeCell ref="U27:AD27"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="F35:AK35"/>
-    <mergeCell ref="Y8:AG8"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="BH11:BS11"/>
-    <mergeCell ref="AR6:BE6"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="F30:CD30"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AR5:BE5"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="U17:AS17"/>
-    <mergeCell ref="F31:CH31"/>
-    <mergeCell ref="BK6:BS6"/>
-    <mergeCell ref="G27:O27"/>
-    <mergeCell ref="U25:AP25"/>
-    <mergeCell ref="F33:AG33"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="U13:AP13"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="F32:AM32"/>
-    <mergeCell ref="U21:AD21"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/output/3_c_2_ING Saving Maximiser Account #1728_Interim_output.xlsx
+++ b/tests/output/3_c_2_ING Saving Maximiser Account #1728_Interim_output.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +459,7 @@
 us a secure message via online banking as soon as possible.
 ING is a business name of ING Bank (Australia) Limited
 ABN 24 000 893 292 | AFSL 229823, Australian Credit Licence 229823
-GPO Box 4094 Sydney NSW Australia 2001 | www.ing.com.au\n\n--- End of Page 1 ---\n\n</t>
+GPO Box 4094 Sydney NSW Australia 2001 | www.ing.com.au</t>
         </is>
       </c>
     </row>
